--- a/Scraped_Data_GoogleMaps.xlsx
+++ b/Scraped_Data_GoogleMaps.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="61">
   <si>
     <t>Name</t>
   </si>
@@ -31,96 +31,185 @@
     <t>Email</t>
   </si>
   <si>
-    <t>North Riverside Plaza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+1 916-619-1583 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SWC Harlem Ave. &amp; Cermak Road, 22nd St, North Riverside, IL 60546, United States </t>
-  </si>
-  <si>
-    <t>https://chicago.brixmor.com?gad_source=6&amp;gclid=EAIaIQobChMIwYqA5qKTgwMVdKaDBx1nYgGiEBAYASAAEgIqYPD_BwE</t>
-  </si>
-  <si>
-    <t>Landmark Property Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+1 312-313-8553 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1212 N Ashland Ave #202, Chicago, IL 60622, United States </t>
-  </si>
-  <si>
-    <t>https://www.chicagospropertymanagement.com/</t>
-  </si>
-  <si>
-    <t>JL Prop Mgmt Co</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+1 773-530-7095 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3001 E 83rd St, Chicago, IL 60617, United States </t>
-  </si>
-  <si>
-    <t>https://jl-prop-mgmt-co.business.site/</t>
-  </si>
-  <si>
-    <t>HomeRiver Group Chicago Property Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+1 630-324-4267 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">600 W Cermak Rd Ste 2A2, Chicago, IL 60616, United States </t>
-  </si>
-  <si>
-    <t>https://www.chicago-propertymanagement.com/</t>
-  </si>
-  <si>
-    <t>In Business Real Estate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+1 773-342-9005 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5515 N Cumberland Ave Ste.801, Chicago, IL 60656, United States </t>
-  </si>
-  <si>
-    <t>http://www.inbusinessrealestate.com/</t>
-  </si>
-  <si>
-    <t>PRG Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+1 312-600-8896 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1000 N Milwaukee Ave #201, Chicago, IL 60642, United States </t>
-  </si>
-  <si>
-    <t>https://prg-management.com/</t>
+    <t>247 HEALTH 247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">California 93657, United States </t>
+  </si>
+  <si>
+    <t>Royal Apothecary Cannabis Retail Store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+1 760-373-4747 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">19821 Neuralia Rd, California City, CA 93505, United States </t>
+  </si>
+  <si>
+    <t>California Holistics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+1 619-629-0032 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">810 Paseo del Rey, Chula Vista, CA 91910, United States </t>
+  </si>
+  <si>
+    <t>California Caregivers Alliance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+1 213-353-0100 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Second Floor, 2815 Sunset Blvd # 201, Los Angeles, CA 90026, United States </t>
+  </si>
+  <si>
+    <t>La Florista Cannabis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+1 530-408-0420 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">242 Main St, Weed, CA 96094, United States </t>
+  </si>
+  <si>
+    <t>Green Gold San Andreas | Recreational and Medical Dispensary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+1 209-674-8008 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">568 Angels Rd, San Andreas, CA 95249, United States </t>
+  </si>
+  <si>
+    <t>California Cannabis Soto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+1 323-685-7151 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1601 S Soto St, Los Angeles, CA 90023, United States </t>
+  </si>
+  <si>
+    <t>Del Rey Farms Dispensary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+1 833-424-4283 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">800 Portola Dr, Del Rey Oaks, CA 93940, United States </t>
+  </si>
+  <si>
+    <t>Tiny Weeds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+1 559-412-1658 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delivery only, Fresno, CA 93720, United States </t>
+  </si>
+  <si>
+    <t>MMD Dispensary North Hollywood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+1 818-980-6337 </t>
+  </si>
+  <si>
+    <t>Mercy Wellness Cotati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+1 707-795-1600 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7950 Redwood Dr #8, Cotati, CA 94931, United States </t>
+  </si>
+  <si>
+    <t>Vibe by California | Port City | Stockton Cannabis Dispensary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+1 209-636-2307 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1550 W Fremont St # 100, Stockton, CA 95203, United States </t>
+  </si>
+  <si>
+    <t>OC3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+1 714-754-1348 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3122 S Halladay St suite a, Santa Ana, CA 92705, United States </t>
+  </si>
+  <si>
+    <t>California Cannabis Melrose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+1 323-536-9212 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">654 N Manhattan Pl, Los Angeles, CA 90004, United States </t>
+  </si>
+  <si>
+    <t>Vibe by California | Sacramento | Cannabis Dispensary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+1 916-739-6337 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8112 Alpine Ave, Sacramento, CA 95826, United States </t>
+  </si>
+  <si>
+    <t>West Coast Cannabis Club Dispensary - Palm Desert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+1 442-282-5101 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">74-425 CA-111, Palm Desert, CA 92260, United States </t>
+  </si>
+  <si>
+    <t>Vibe by California | Redding Cannabis Dispensary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+1 530-276-0035 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3270 S Market St, Redding, CA 96001, United States </t>
+  </si>
+  <si>
+    <t>Exotic Weeds</t>
+  </si>
+  <si>
+    <t>Cannable Cannabis Weed Dispensary Parlier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+1 559-254-5066 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">885 Manning Ave suite 200, Parlier, CA 93648, United States </t>
+  </si>
+  <si>
+    <t>Calaveras Little Trees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+1 209-890-3647 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2641 CA-4, Arnold, CA 95223, United States </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -140,19 +229,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -445,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -472,95 +555,220 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
         <v>25</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B9" t="s">
         <v>26</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C9" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="1" t="s">
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
         <v>28</v>
       </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" t="s">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="D4" r:id="rId3"/>
-    <hyperlink ref="D5" r:id="rId4"/>
-    <hyperlink ref="D6" r:id="rId5"/>
-    <hyperlink ref="D7" r:id="rId6"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>